--- a/whatsapp-sender/messageBlaster/Contacts.xlsx
+++ b/whatsapp-sender/messageBlaster/Contacts.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\Mini-Python\whatsapp-sender\messageBlaster\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{421397C0-459C-4BE0-AE7C-6E35B971CA77}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1453241F-7C0E-41C9-8FFC-C738EFE7725A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2640" yWindow="2640" windowWidth="15375" windowHeight="8325" xr2:uid="{77532ECA-40A2-402D-8C29-1491540781EF}"/>
+    <workbookView xWindow="1905" yWindow="1905" windowWidth="15375" windowHeight="8325" xr2:uid="{77532ECA-40A2-402D-8C29-1491540781EF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,10 +28,10 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
-    <t>Sapna Uppal</t>
+    <t>Sukhbir Uppal</t>
   </si>
   <si>
-    <t>Sukhbir Uppal</t>
+    <t>Sapna Uppal</t>
   </si>
 </sst>
 </file>
@@ -386,7 +386,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -399,7 +399,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1">
         <v>9819719688</v>
@@ -407,7 +407,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2">
         <v>9820597311</v>
